--- a/app/admin/Menu.xlsx
+++ b/app/admin/Menu.xlsx
@@ -325,10 +325,10 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.02"/>
